--- a/data/hotels_by_city/Houston/Houston_shard_592.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_592.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56003-d8529159-Reviews-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>202</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-SpringHill-Suites-By-Marriott-Houston-Hwy-290NW-Cypress.h11921906.Hotel-Information?chkin=7%2F23%2F2018&amp;chkout=7%2F24%2F2018&amp;rm1=a2&amp;hwrqCacheKey=2c0c174b-c091-4c83-b554-828cafb92ffaHWRQ1531622220970&amp;cancellable=false&amp;regionId=178265&amp;vip=false&amp;c=9ebbac21-7614-4ef4-918d-cbafa1bf7eb9&amp;mctc=9&amp;exp_dp=121&amp;exp_ts=1531622221542&amp;exp_curr=USD&amp;swpToggleOn=false&amp;exp_pg=HSR</t>
   </si>
   <si>
@@ -139,6 +148,360 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/13/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r575609896-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8529159</t>
+  </si>
+  <si>
+    <t>575609896</t>
+  </si>
+  <si>
+    <t>04/25/2018</t>
+  </si>
+  <si>
+    <t>Top Notch Hotel!</t>
+  </si>
+  <si>
+    <t>I've stayed at several SpringHill Suites before, but none have been this clean and fresh. On top of that the staff is very friendly. Hats off to Joy at the front desk who wears the name appropriate smile to greet you and help you!  The bed was very comfortable, rooms very clean and quiet.  I didn't hear any other guest, nor anyone in the hallways at night. I got a couple of very restful nights.  I will definitely come back here again when staying in Houston. You can't go wrong here! An added bonus was the Goode Co. Barbeque within waking distance of the hotel. A great spot for dinner.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I've stayed at several SpringHill Suites before, but none have been this clean and fresh. On top of that the staff is very friendly. Hats off to Joy at the front desk who wears the name appropriate smile to greet you and help you!  The bed was very comfortable, rooms very clean and quiet.  I didn't hear any other guest, nor anyone in the hallways at night. I got a couple of very restful nights.  I will definitely come back here again when staying in Houston. You can't go wrong here! An added bonus was the Goode Co. Barbeque within waking distance of the hotel. A great spot for dinner.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r570558495-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>570558495</t>
+  </si>
+  <si>
+    <t>04/02/2018</t>
+  </si>
+  <si>
+    <t>Hands Down Best Service</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people...My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people she sees and speaks to she still remembered my sisters birthday and even sang to her when she came down for breakfast. Even with all of this she still amazed us all with her Easter breakfast and the treats she had for the kids and parents. There was 2 little boys that were with their new adopted parents and when Miss Tracy told them she was adopted as well, the smiles on those little boys faces were simply priceless and brought tears to my eyes. Without a doubt the best breakfast I have ever had in hotel. Everyone that had breakfast with Miss Tracy Easter Sunday left with a smile. To the Manager of Springhill My Family and I would love to say Thank you for hiring this young lady. She made our trip even better than we expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people...My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people she sees and speaks to she still remembered my sisters birthday and even sang to her when she came down for breakfast. Even with all of this she still amazed us all with her Easter breakfast and the treats she had for the kids and parents. There was 2 little boys that were with their new adopted parents and when Miss Tracy told them she was adopted as well, the smiles on those little boys faces were simply priceless and brought tears to my eyes. Without a doubt the best breakfast I have ever had in hotel. Everyone that had breakfast with Miss Tracy Easter Sunday left with a smile. To the Manager of Springhill My Family and I would love to say Thank you for hiring this young lady. She made our trip even better than we expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r544886370-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>544886370</t>
+  </si>
+  <si>
+    <t>12/03/2017</t>
+  </si>
+  <si>
+    <t>Clean and Decent Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this property for two nights while I was in town for business. And the hotel is quite new and the common areas are very clean. There is a small gym and a decent breakfast.I was a little less than impressed with the housekeeping service, who didn’t actually clean my bathroom, but just gave me new towels.  Also, I requested a wake up call which never came. I highly suggest you set a back up alarm if you don’t want to be late to work because the hotel’s wake up system was not functioning properly.Other than those two blips, I was pleased with my stay.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r507905012-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>507905012</t>
+  </si>
+  <si>
+    <t>08/01/2017</t>
+  </si>
+  <si>
+    <t>Views</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I stayed here with family and it was great! Very up to date and it was very clean! Close to JFK airport so the view was cool watching the planes and we had a view of the interstate! Staff was nice and price was about $109 with tax which was a good deal! </t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r488892128-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488892128</t>
+  </si>
+  <si>
+    <t>05/29/2017</t>
+  </si>
+  <si>
+    <t>Nice place to stay; however not in a easy accessible area.</t>
+  </si>
+  <si>
+    <t>Very nice hotel seems to be a new hotel. The room was roomy; however I didn’t really care for the shape and the location of the TV. The staff was friendly and helpful.  The breakfast area was about the norm for a Marriott property.   Property is just off 290, on a one way street, which makes it difficult to return to once you leave the area.</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r488697059-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>488697059</t>
+  </si>
+  <si>
+    <t>Favorite Houston Hotel</t>
+  </si>
+  <si>
+    <t>We typically visit Houston annually to see family. This is where we stay. The facility is new, modern decor. Great fitness center, free breakfast, small bar. Friendly staff and all you would expect. There is a conference center on site as well.MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 30, 2017</t>
+  </si>
+  <si>
+    <t>We typically visit Houston annually to see family. This is where we stay. The facility is new, modern decor. Great fitness center, free breakfast, small bar. Friendly staff and all you would expect. There is a conference center on site as well.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r456022806-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>456022806</t>
+  </si>
+  <si>
+    <t>01/30/2017</t>
+  </si>
+  <si>
+    <t>Perfect for Quick Visit</t>
+  </si>
+  <si>
+    <t>We were in town to attend a funeral and were needing a hotel for one night.  The location was perfect.  Our room was very nice.  It had plenty of room for my husband, our 12 year old son and I.  The sofa made out into a bed for our son and there was still plenty of room to move around.  The hotel and room was very clean.  I cannot remember the girl's name who checked us in but she was very friendly and helpful.  The breakfast was the usual buffet that you would find at this level of hotel, nothing fancy but fine for a quick breakfast.  Would stay here again if I was in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We were in town to attend a funeral and were needing a hotel for one night.  The location was perfect.  Our room was very nice.  It had plenty of room for my husband, our 12 year old son and I.  The sofa made out into a bed for our son and there was still plenty of room to move around.  The hotel and room was very clean.  I cannot remember the girl's name who checked us in but she was very friendly and helpful.  The breakfast was the usual buffet that you would find at this level of hotel, nothing fancy but fine for a quick breakfast.  Would stay here again if I was in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r454533936-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454533936</t>
+  </si>
+  <si>
+    <t>01/24/2017</t>
+  </si>
+  <si>
+    <t>Shopping for Profit Summit Jan 2017</t>
+  </si>
+  <si>
+    <t>3 of us from Ontario, Canada attended above mentioned conference in Jan 2017.  I must say that the free breakfast was amazing, so much food and variety.  The rooms were spectacular and so clean, just as the whole hotel was.  There were about 200 of us at the conference and everyone that worked there was so accommodating, it was like they knew what we needed beforehand!  The conference room itself was spacious with lots of room for tables and chairs and a speaker podium.  Sound was great.  We even had a party in it with a disc jockey and a dance floor!  So much fun.  I was having problems connecting with the internet and the Manager fixed it in a second.  I have only good things to say about this hotel.  PS - use a GPS when heading there, that's what we did and had no problems finding it at all.MoreShow less</t>
+  </si>
+  <si>
+    <t>3 of us from Ontario, Canada attended above mentioned conference in Jan 2017.  I must say that the free breakfast was amazing, so much food and variety.  The rooms were spectacular and so clean, just as the whole hotel was.  There were about 200 of us at the conference and everyone that worked there was so accommodating, it was like they knew what we needed beforehand!  The conference room itself was spacious with lots of room for tables and chairs and a speaker podium.  Sound was great.  We even had a party in it with a disc jockey and a dance floor!  So much fun.  I was having problems connecting with the internet and the Manager fixed it in a second.  I have only good things to say about this hotel.  PS - use a GPS when heading there, that's what we did and had no problems finding it at all.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r454132486-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454132486</t>
+  </si>
+  <si>
+    <t>01/22/2017</t>
+  </si>
+  <si>
+    <t>Great place to have a conference</t>
+  </si>
+  <si>
+    <t>I attended a conference here and the accommodations were lovely. The meeting room was spacious and clean. The breakfast bacon was crispy. There was coffee and tea available throughout the day. There were plenty of outlets to accommodate the number of laptops being used by the attendees, but it helps if you have a buddy bring a power strip. The staff was helpful and attentive. There was plenty of parking and best of all free Wi-Fi! The internet service was stable and fast. I would definitely be open to hosting a conference here.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r386446216-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>386446216</t>
+  </si>
+  <si>
+    <t>06/27/2016</t>
+  </si>
+  <si>
+    <t>Quiet and clean room, good price</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay.  I like SpringHill Suites because the rooms are good size. The staff was very friendly and helpful.  They gave a us a list of local dining places.  Room rate was lower than other hotels in the area.   The breakfast was plentiful and tasty.  Only negative was there was not their fault.  There is construction going on in the area and it is a bit tough to get to the hotel right now.  It is a one way street along the side of the highway in front of the hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 6, 2016</t>
+  </si>
+  <si>
+    <t>Enjoyed our stay.  I like SpringHill Suites because the rooms are good size. The staff was very friendly and helpful.  They gave a us a list of local dining places.  Room rate was lower than other hotels in the area.   The breakfast was plentiful and tasty.  Only negative was there was not their fault.  There is construction going on in the area and it is a bit tough to get to the hotel right now.  It is a one way street along the side of the highway in front of the hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r375951215-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>375951215</t>
+  </si>
+  <si>
+    <t>05/23/2016</t>
+  </si>
+  <si>
+    <t>Overall pretty good with a couple nit-picky issues.</t>
+  </si>
+  <si>
+    <t>Staying here for 18 days on business. Good rate and an overall nice hotel. Very clean, friendly and helpful staff (And not just because i'm Platinum with Marriott Rewards). I would likely recommend it to most folks. Downsides (They are petty, but I wanted to try and put something):Not particularly centrally located.No restaurants within walking distance (You can eat just about anywhere with a 10-15 minute drive though).The bar in the lobby is overpriced by about 2 bucks a drink.The TV in the room is really awkwardly located.For a suite, the room itself feels a bit cramped.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 25, 2016</t>
+  </si>
+  <si>
+    <t>Staying here for 18 days on business. Good rate and an overall nice hotel. Very clean, friendly and helpful staff (And not just because i'm Platinum with Marriott Rewards). I would likely recommend it to most folks. Downsides (They are petty, but I wanted to try and put something):Not particularly centrally located.No restaurants within walking distance (You can eat just about anywhere with a 10-15 minute drive though).The bar in the lobby is overpriced by about 2 bucks a drink.The TV in the room is really awkwardly located.For a suite, the room itself feels a bit cramped.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r366073054-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>366073054</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>nice and new</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here and found the room to be clean and nicely appointed. Staff was very friendly and helpful. Breakfast buffet was very tasty and fresh with starbucks coffee! I especially liked that the window in our room could be opened for some fresh air. The bed was a little hard, but maybe just because the hotel is new. I will note that google maps could not direct us correctly and we had to call the hotel for directions, as there is a lot of construction in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2016</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded April 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded April 22, 2016</t>
+  </si>
+  <si>
+    <t>My husband and I stayed here and found the room to be clean and nicely appointed. Staff was very friendly and helpful. Breakfast buffet was very tasty and fresh with starbucks coffee! I especially liked that the window in our room could be opened for some fresh air. The bed was a little hard, but maybe just because the hotel is new. I will note that google maps could not direct us correctly and we had to call the hotel for directions, as there is a lot of construction in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r357398417-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>357398417</t>
+  </si>
+  <si>
+    <t>03/21/2016</t>
+  </si>
+  <si>
+    <t>Great Weekend Getaway</t>
+  </si>
+  <si>
+    <t>My husband and I really enjoyed staying at this new upscale and modern hotel. First let me say the customer service I received from Della who worked at the front desk this evening was excellent. First we had a double bed then we decided we wanted a king size bed, called Della and it was no problem, she even called us later to make sure it was up to our liking which was very nice. Our room was very pretty, nicely arranged. I enjoyed the shower and the space we had in the bathroom. We slept like rocks, which we needed very much! The breakfast in the morning was good and everything was super clean. The wonderful lady who checked us out I did not catch her name but she had very curly long hair and she was great as well in her customer service which is very important. I would recommend this hotel to all my friends and family.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I really enjoyed staying at this new upscale and modern hotel. First let me say the customer service I received from Della who worked at the front desk this evening was excellent. First we had a double bed then we decided we wanted a king size bed, called Della and it was no problem, she even called us later to make sure it was up to our liking which was very nice. Our room was very pretty, nicely arranged. I enjoyed the shower and the space we had in the bathroom. We slept like rocks, which we needed very much! The breakfast in the morning was good and everything was super clean. The wonderful lady who checked us out I did not catch her name but she had very curly long hair and she was great as well in her customer service which is very important. I would recommend this hotel to all my friends and family.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r355053905-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>355053905</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Excellent Stay</t>
+  </si>
+  <si>
+    <t>A beautiful new and modern hotel. We stayed here for just one night and truly enjoyed it. Everyone was very friendly and wanted to do whatever they could to make sure you enjoyed your stay. Amaris helped us when we checked in and was very helpful. She even called our room once we got to it to make sure everything was ok and to ask if we needed anything. When we were checking out Steven made sure to ask if everything was ok with our stay and if we needed anything else. The service was definitely the best I have experienced at a hotel!The room was very clean, nicely decorated and the bed was comfortable. It is a good size room with a sitting area that is slightly separated with a partition from the bed area. The room is very modern and unique looking. The wifi was fast and easy to connect to which I greatly appreciated. There is a complimentary breakfast which is always a plus! The breakfast was good with many different options. It was very well stocked and attended to.We enjoyed every aspect of our stay and wouldn't hesitate to stay again!MoreShow less</t>
+  </si>
+  <si>
+    <t>A beautiful new and modern hotel. We stayed here for just one night and truly enjoyed it. Everyone was very friendly and wanted to do whatever they could to make sure you enjoyed your stay. Amaris helped us when we checked in and was very helpful. She even called our room once we got to it to make sure everything was ok and to ask if we needed anything. When we were checking out Steven made sure to ask if everything was ok with our stay and if we needed anything else. The service was definitely the best I have experienced at a hotel!The room was very clean, nicely decorated and the bed was comfortable. It is a good size room with a sitting area that is slightly separated with a partition from the bed area. The room is very modern and unique looking. The wifi was fast and easy to connect to which I greatly appreciated. There is a complimentary breakfast which is always a plus! The breakfast was good with many different options. It was very well stocked and attended to.We enjoyed every aspect of our stay and wouldn't hesitate to stay again!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r354898324-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354898324</t>
+  </si>
+  <si>
+    <t>03/12/2016</t>
+  </si>
+  <si>
+    <t>WONDERFUL</t>
+  </si>
+  <si>
+    <t>We stayed just for a night, we checked in about 9pm Daniel helped us at the front desk he was extremely nice, offered us the free candy and shared with us some interesting facts about the hotel candy. The room was very modern and extremely nice. Comfortable bed. Plenty of room for our luggage, with an awesome closest. I personally loved all the lighting and the bathroom very roomy. Wonderful breakfast too! Both of the woman that helped with the breakfast were extremely nice. While leaving in the morning Della very kindly told us a sweet "safe travels". Some of the best personal attention to guests I have every seen! Will come again!!MoreShow less</t>
+  </si>
+  <si>
+    <t>We stayed just for a night, we checked in about 9pm Daniel helped us at the front desk he was extremely nice, offered us the free candy and shared with us some interesting facts about the hotel candy. The room was very modern and extremely nice. Comfortable bed. Plenty of room for our luggage, with an awesome closest. I personally loved all the lighting and the bathroom very roomy. Wonderful breakfast too! Both of the woman that helped with the breakfast were extremely nice. While leaving in the morning Della very kindly told us a sweet "safe travels". Some of the best personal attention to guests I have every seen! Will come again!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r349539455-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>349539455</t>
+  </si>
+  <si>
+    <t>02/20/2016</t>
+  </si>
+  <si>
+    <t>Can't believe I wasted a week at the Residence Inn</t>
+  </si>
+  <si>
+    <t>Next time I'm in town I will be staying here. This place is amazing, brand new and is kept up. The management team &amp; staff are doing a fantastic job here. I only found this only because I had to find another hotel for my last night of my stay because my current hotel, Residence Inn, was over booked for Friday. Anyhow their loss, now that I've found SpringHill, I will be returning every time I'm in HoustonMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Responded February 22, 2016</t>
+  </si>
+  <si>
+    <t>Next time I'm in town I will be staying here. This place is amazing, brand new and is kept up. The management team &amp; staff are doing a fantastic job here. I only found this only because I had to find another hotel for my last night of my stay because my current hotel, Residence Inn, was over booked for Friday. Anyhow their loss, now that I've found SpringHill, I will be returning every time I'm in HoustonMore</t>
   </si>
 </sst>
 </file>
@@ -532,11 +895,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +927,1073 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>5</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s">
+        <v>60</v>
+      </c>
+      <c r="O3" t="s">
+        <v>61</v>
+      </c>
+      <c r="P3" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>63</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>64</v>
+      </c>
+      <c r="J4" t="s">
+        <v>65</v>
+      </c>
+      <c r="K4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
+        <v>68</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>69</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>70</v>
+      </c>
+      <c r="J5" t="s">
+        <v>71</v>
+      </c>
+      <c r="K5" t="s">
+        <v>72</v>
+      </c>
+      <c r="L5" t="s">
+        <v>73</v>
+      </c>
+      <c r="M5" t="n">
+        <v>4</v>
+      </c>
+      <c r="N5" t="s">
+        <v>74</v>
+      </c>
+      <c r="O5" t="s">
+        <v>61</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>80</v>
+      </c>
+      <c r="O6" t="s">
+        <v>61</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="n">
+        <v>4</v>
+      </c>
+      <c r="R6" t="n">
+        <v>3</v>
+      </c>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>77</v>
+      </c>
+      <c r="K7" t="s">
+        <v>83</v>
+      </c>
+      <c r="L7" t="s">
+        <v>84</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>61</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>85</v>
+      </c>
+      <c r="X7" t="s">
+        <v>86</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>88</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>89</v>
+      </c>
+      <c r="J8" t="s">
+        <v>90</v>
+      </c>
+      <c r="K8" t="s">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s">
+        <v>92</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>93</v>
+      </c>
+      <c r="O8" t="s">
+        <v>94</v>
+      </c>
+      <c r="P8" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>97</v>
+      </c>
+      <c r="J9" t="s">
+        <v>98</v>
+      </c>
+      <c r="K9" t="s">
+        <v>99</v>
+      </c>
+      <c r="L9" t="s">
+        <v>100</v>
+      </c>
+      <c r="M9" t="n">
+        <v>5</v>
+      </c>
+      <c r="N9" t="s">
+        <v>93</v>
+      </c>
+      <c r="O9" t="s">
+        <v>53</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="n">
+        <v>5</v>
+      </c>
+      <c r="R9" t="n">
+        <v>5</v>
+      </c>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>5</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>103</v>
+      </c>
+      <c r="J10" t="s">
+        <v>104</v>
+      </c>
+      <c r="K10" t="s">
+        <v>105</v>
+      </c>
+      <c r="L10" t="s">
+        <v>106</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>93</v>
+      </c>
+      <c r="O10" t="s">
+        <v>53</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>107</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>108</v>
+      </c>
+      <c r="J11" t="s">
+        <v>109</v>
+      </c>
+      <c r="K11" t="s">
+        <v>110</v>
+      </c>
+      <c r="L11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O11" t="s">
+        <v>113</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>5</v>
+      </c>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s">
+        <v>114</v>
+      </c>
+      <c r="X11" t="s">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>117</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>118</v>
+      </c>
+      <c r="J12" t="s">
+        <v>119</v>
+      </c>
+      <c r="K12" t="s">
+        <v>120</v>
+      </c>
+      <c r="L12" t="s">
+        <v>121</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>122</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>123</v>
+      </c>
+      <c r="X12" t="s">
+        <v>124</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>126</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>127</v>
+      </c>
+      <c r="J13" t="s">
+        <v>128</v>
+      </c>
+      <c r="K13" t="s">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s">
+        <v>130</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>131</v>
+      </c>
+      <c r="O13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>132</v>
+      </c>
+      <c r="X13" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>135</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>136</v>
+      </c>
+      <c r="J14" t="s">
+        <v>137</v>
+      </c>
+      <c r="K14" t="s">
+        <v>138</v>
+      </c>
+      <c r="L14" t="s">
+        <v>139</v>
+      </c>
+      <c r="M14" t="n">
+        <v>5</v>
+      </c>
+      <c r="N14" t="s">
+        <v>131</v>
+      </c>
+      <c r="O14" t="s">
+        <v>113</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="n">
+        <v>5</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="n">
+        <v>5</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>141</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>142</v>
+      </c>
+      <c r="J15" t="s">
+        <v>143</v>
+      </c>
+      <c r="K15" t="s">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s">
+        <v>145</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>131</v>
+      </c>
+      <c r="O15" t="s">
+        <v>113</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>147</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>148</v>
+      </c>
+      <c r="J16" t="s">
+        <v>149</v>
+      </c>
+      <c r="K16" t="s">
+        <v>150</v>
+      </c>
+      <c r="L16" t="s">
+        <v>151</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>131</v>
+      </c>
+      <c r="O16" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="s"/>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D1" t="s">
-        <v>19</v>
-      </c>
-      <c r="E1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G1" t="s">
-        <v>22</v>
-      </c>
-      <c r="H1" t="s">
-        <v>23</v>
-      </c>
-      <c r="I1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K1" t="s">
-        <v>26</v>
-      </c>
-      <c r="L1" t="s">
-        <v>27</v>
-      </c>
-      <c r="M1" t="s">
-        <v>28</v>
-      </c>
-      <c r="N1" t="s">
-        <v>29</v>
-      </c>
-      <c r="O1" t="s">
-        <v>30</v>
-      </c>
-      <c r="P1" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>32</v>
-      </c>
-      <c r="R1" t="s">
-        <v>33</v>
-      </c>
-      <c r="S1" t="s">
-        <v>34</v>
-      </c>
-      <c r="T1" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" t="s">
-        <v>36</v>
-      </c>
-      <c r="V1" t="s">
-        <v>37</v>
-      </c>
-      <c r="W1" t="s">
-        <v>38</v>
-      </c>
-      <c r="X1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>40</v>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>153</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>154</v>
+      </c>
+      <c r="J17" t="s">
+        <v>155</v>
+      </c>
+      <c r="K17" t="s">
+        <v>156</v>
+      </c>
+      <c r="L17" t="s">
+        <v>157</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" t="s">
+        <v>61</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s">
+        <v>159</v>
+      </c>
+      <c r="X17" t="s">
+        <v>160</v>
+      </c>
+      <c r="Y17" t="s">
+        <v>161</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_592.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_592.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="244">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,63 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/13/2018</t>
+    <t>09/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r593546496-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>56003</t>
+  </si>
+  <si>
+    <t>8529159</t>
+  </si>
+  <si>
+    <t>593546496</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>GREAT PLACE TO STAY!!</t>
+  </si>
+  <si>
+    <t>This place gets 5 stars from me! The staff is friendly and accommodating. Our room was clean and I love the layout, very functional!! You can't beat these prices especially bc the service you get is well above what I paid for the room! I will definitely be staying here more often!!!</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r592456658-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>592456658</t>
+  </si>
+  <si>
+    <t>07/02/2018</t>
+  </si>
+  <si>
+    <t>Disappointing</t>
+  </si>
+  <si>
+    <t>First of all, I screwed up by booking Springhill Suites instead of Homewood Suites for a night visiting friends in northwest Houston/Cypress. I had stayed at the latter (just down the road) before and it was great. But in between, I had stayed at a Springhill in another city and got mixed up, "misremembered" the correct hotel name. 
+Got there, and the outside of the building looked nicer than Homewood. However, when we got to the room, it was a big letdown. The Homewood Suites room nearby, and also the Springhill room I'd stayed in near Louisiana Downs, were true suites, with bedrooms separated from the living area/second sleeping area by a door, and had kitchenettes that included a sink. 
+This room should NOT be called a suite. It's just a big room that has a desk in between the sleeping and living areas. The "kitchenette" is a microwave and mini fridge.  If someone is taking a shower and the bathroom is occupied, you can't get a cup of water to make coffee.  The "kitchenette area backs up to the bathroom so it would have been easy to plumb in a little bar sink. Big design fail. And not the only one. 
+The door to the bathroom is right by the bed. It's a sliding frosted glass door. When someone is in the bathroom and turns on the light, it lights up so the person who's in bed is instantly...First of all, I screwed up by booking Springhill Suites instead of Homewood Suites for a night visiting friends in northwest Houston/Cypress. I had stayed at the latter (just down the road) before and it was great. But in between, I had stayed at a Springhill in another city and got mixed up, "misremembered" the correct hotel name. Got there, and the outside of the building looked nicer than Homewood. However, when we got to the room, it was a big letdown. The Homewood Suites room nearby, and also the Springhill room I'd stayed in near Louisiana Downs, were true suites, with bedrooms separated from the living area/second sleeping area by a door, and had kitchenettes that included a sink. This room should NOT be called a suite. It's just a big room that has a desk in between the sleeping and living areas. The "kitchenette" is a microwave and mini fridge.  If someone is taking a shower and the bathroom is occupied, you can't get a cup of water to make coffee.  The "kitchenette area backs up to the bathroom so it would have been easy to plumb in a little bar sink. Big design fail. And not the only one. The door to the bathroom is right by the bed. It's a sliding frosted glass door. When someone is in the bathroom and turns on the light, it lights up so the person who's in bed is instantly awakened. Who in the world thought that was a good idea? Not that you're going to get much sleep anyway, even if the person using the sofa bed is quiet. The bed is also right by a window that faces the freeway (and a fireworks stand). You can hear every car that goes by.  I had to wear my headphones and use a "white noise" app to drown it out, and of course woke up numerous times due to the discomfort of that. In addition, the walls seemed thinner than most and we could hear neighbors' TV, but it might be they just had it turned up extra loud. Also be aware the sofa bed is a trundle (pull out bottom) rather than a traditional foldout bed. If two people were going to sleep on it, they'll be at different height levels.If I were rating the room only, I'd only give two stars. However, the hotel gets credit for having a very nice lobby area with a bar and a nice breakfast area. The free breakfast was average hotel breakfast fare. The coffee was above average. Check-in and -out were quick and easy. The room and entire hotel were very clean. The room's bathroom, except for that translucent door, was very nice with a good sized shower and lots of counter space. The big mirror is lighted and there is a decent hair dryer. It's not horrible, but I won't be staying there again since I know I can get something much more to my liking for about the same price right down the road. If you do stay there, I'd suggest asking for a room on the back side to avoid the freeway noise.MoreShow less</t>
+  </si>
+  <si>
+    <t>First of all, I screwed up by booking Springhill Suites instead of Homewood Suites for a night visiting friends in northwest Houston/Cypress. I had stayed at the latter (just down the road) before and it was great. But in between, I had stayed at a Springhill in another city and got mixed up, "misremembered" the correct hotel name. 
+Got there, and the outside of the building looked nicer than Homewood. However, when we got to the room, it was a big letdown. The Homewood Suites room nearby, and also the Springhill room I'd stayed in near Louisiana Downs, were true suites, with bedrooms separated from the living area/second sleeping area by a door, and had kitchenettes that included a sink. 
+This room should NOT be called a suite. It's just a big room that has a desk in between the sleeping and living areas. The "kitchenette" is a microwave and mini fridge.  If someone is taking a shower and the bathroom is occupied, you can't get a cup of water to make coffee.  The "kitchenette area backs up to the bathroom so it would have been easy to plumb in a little bar sink. Big design fail. And not the only one. 
+The door to the bathroom is right by the bed. It's a sliding frosted glass door. When someone is in the bathroom and turns on the light, it lights up so the person who's in bed is instantly...First of all, I screwed up by booking Springhill Suites instead of Homewood Suites for a night visiting friends in northwest Houston/Cypress. I had stayed at the latter (just down the road) before and it was great. But in between, I had stayed at a Springhill in another city and got mixed up, "misremembered" the correct hotel name. Got there, and the outside of the building looked nicer than Homewood. However, when we got to the room, it was a big letdown. The Homewood Suites room nearby, and also the Springhill room I'd stayed in near Louisiana Downs, were true suites, with bedrooms separated from the living area/second sleeping area by a door, and had kitchenettes that included a sink. This room should NOT be called a suite. It's just a big room that has a desk in between the sleeping and living areas. The "kitchenette" is a microwave and mini fridge.  If someone is taking a shower and the bathroom is occupied, you can't get a cup of water to make coffee.  The "kitchenette area backs up to the bathroom so it would have been easy to plumb in a little bar sink. Big design fail. And not the only one. The door to the bathroom is right by the bed. It's a sliding frosted glass door. When someone is in the bathroom and turns on the light, it lights up so the person who's in bed is instantly awakened. Who in the world thought that was a good idea? Not that you're going to get much sleep anyway, even if the person using the sofa bed is quiet. The bed is also right by a window that faces the freeway (and a fireworks stand). You can hear every car that goes by.  I had to wear my headphones and use a "white noise" app to drown it out, and of course woke up numerous times due to the discomfort of that. In addition, the walls seemed thinner than most and we could hear neighbors' TV, but it might be they just had it turned up extra loud. Also be aware the sofa bed is a trundle (pull out bottom) rather than a traditional foldout bed. If two people were going to sleep on it, they'll be at different height levels.If I were rating the room only, I'd only give two stars. However, the hotel gets credit for having a very nice lobby area with a bar and a nice breakfast area. The free breakfast was average hotel breakfast fare. The coffee was above average. Check-in and -out were quick and easy. The room and entire hotel were very clean. The room's bathroom, except for that translucent door, was very nice with a good sized shower and lots of counter space. The big mirror is lighted and there is a decent hair dryer. It's not horrible, but I won't be staying there again since I know I can get something much more to my liking for about the same price right down the road. If you do stay there, I'd suggest asking for a room on the back side to avoid the freeway noise.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r575609896-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
-    <t>56003</t>
-  </si>
-  <si>
-    <t>8529159</t>
-  </si>
-  <si>
     <t>575609896</t>
   </si>
   <si>
@@ -201,9 +246,6 @@
     <t>March 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people...My family and I stayed at this hotel Easter weekend and while I am not one to write reviews, in this case I simply had to. We were there for 3 days and for the first time ever in a larger chain hotel my family and I felt so comfortable and instantly right at home from the time we walked through the door. Almost like a small personal B&amp;B. . They have an employee named Tracy ( I did not get a last name) that does the morning breakfast and bartends at night. This young lady went above and beyond not only to smile and welcome our family but for many others as well. She treated us like we were her own personal family, she got to know all of us and asked questions on why we were staying at this hotel. It was a birthday trip for my sister and our mother booked the stay with this particular Springhill Suites. We usually book with Hyatt but decided to change it up this trip an thankfully we did. No matter what time of day it was she always had a smile for us and always asked how our day was. She gave us plenty of suggestions on attractions for the kids and for the adults as well. Which was greatly appreciated and we had fun at all. Told of us some of the best eateries around. With all the people she sees and speaks to she still remembered my sisters birthday and even sang to her when she came down for breakfast. Even with all of this she still amazed us all with her Easter breakfast and the treats she had for the kids and parents. There was 2 little boys that were with their new adopted parents and when Miss Tracy told them she was adopted as well, the smiles on those little boys faces were simply priceless and brought tears to my eyes. Without a doubt the best breakfast I have ever had in hotel. Everyone that had breakfast with Miss Tracy Easter Sunday left with a smile. To the Manager of Springhill My Family and I would love to say Thank you for hiring this young lady. She made our trip even better than we expected.More</t>
   </si>
   <si>
@@ -225,6 +267,51 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r525026549-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>525026549</t>
+  </si>
+  <si>
+    <t>09/16/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Good hotel for family </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stayed with whole family. Brand new hotel. Located on highway exit. Convenient location. Good place for families. Shopping malls and restaurants are nearby few minutes drive. Nothing walking distance. </t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r510540544-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>510540544</t>
+  </si>
+  <si>
+    <t>08/09/2017</t>
+  </si>
+  <si>
+    <t>Good location Different style</t>
+  </si>
+  <si>
+    <t>If you need to be on this side of Houston the location is convenient and slightly out of the heavy traffic areas.  However, this SpringHill seems to be a step down from the other locations at which I have stayed.  i.e. Austin locations.  However, that is also reflected in a lower price.  The interior of the room is smaller and does not have a sink in a "kitchen" area.  Also, no freezer in the small fridge.  This room is very similar to some rooms in Spain in which we stayed.  The shower &amp; bath area in particular.  No tub which was fine.  Also, the desk work area is small compared to other SpringHill Suites AND it is the separator of the sitting area from the sleeping area.  Which means if the light is on so someone can use the desk it reflects into the sleeping area.  There is a sliding glass window to separate the areas.  This really does not make any sense.  This location has a bar in the evenings which is new to us and we did not really like that "vibe."  Also, they do not have coffee in the lobby in the evenings.  They have only the tiny half a cup bad coffee in the rooms to offer.  The outdoor pool was a treat although the water was very warm as it is directly in the afternoon sun.  The down side is that folks were in the...If you need to be on this side of Houston the location is convenient and slightly out of the heavy traffic areas.  However, this SpringHill seems to be a step down from the other locations at which I have stayed.  i.e. Austin locations.  However, that is also reflected in a lower price.  The interior of the room is smaller and does not have a sink in a "kitchen" area.  Also, no freezer in the small fridge.  This room is very similar to some rooms in Spain in which we stayed.  The shower &amp; bath area in particular.  No tub which was fine.  Also, the desk work area is small compared to other SpringHill Suites AND it is the separator of the sitting area from the sleeping area.  Which means if the light is on so someone can use the desk it reflects into the sleeping area.  There is a sliding glass window to separate the areas.  This really does not make any sense.  This location has a bar in the evenings which is new to us and we did not really like that "vibe."  Also, they do not have coffee in the lobby in the evenings.  They have only the tiny half a cup bad coffee in the rooms to offer.  The outdoor pool was a treat although the water was very warm as it is directly in the afternoon sun.  The down side is that folks were in the area smoking even though there are posted no smoking signs.  Despite these drawbacks we will stay here again as the location is good for our needs.  It is also only a couple of miles away from restaurants &amp; cafes without having to get on the busiest roads.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t>Management response:Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 15, 2017</t>
+  </si>
+  <si>
+    <t>If you need to be on this side of Houston the location is convenient and slightly out of the heavy traffic areas.  However, this SpringHill seems to be a step down from the other locations at which I have stayed.  i.e. Austin locations.  However, that is also reflected in a lower price.  The interior of the room is smaller and does not have a sink in a "kitchen" area.  Also, no freezer in the small fridge.  This room is very similar to some rooms in Spain in which we stayed.  The shower &amp; bath area in particular.  No tub which was fine.  Also, the desk work area is small compared to other SpringHill Suites AND it is the separator of the sitting area from the sleeping area.  Which means if the light is on so someone can use the desk it reflects into the sleeping area.  There is a sliding glass window to separate the areas.  This really does not make any sense.  This location has a bar in the evenings which is new to us and we did not really like that "vibe."  Also, they do not have coffee in the lobby in the evenings.  They have only the tiny half a cup bad coffee in the rooms to offer.  The outdoor pool was a treat although the water was very warm as it is directly in the afternoon sun.  The down side is that folks were in the...If you need to be on this side of Houston the location is convenient and slightly out of the heavy traffic areas.  However, this SpringHill seems to be a step down from the other locations at which I have stayed.  i.e. Austin locations.  However, that is also reflected in a lower price.  The interior of the room is smaller and does not have a sink in a "kitchen" area.  Also, no freezer in the small fridge.  This room is very similar to some rooms in Spain in which we stayed.  The shower &amp; bath area in particular.  No tub which was fine.  Also, the desk work area is small compared to other SpringHill Suites AND it is the separator of the sitting area from the sleeping area.  Which means if the light is on so someone can use the desk it reflects into the sleeping area.  There is a sliding glass window to separate the areas.  This really does not make any sense.  This location has a bar in the evenings which is new to us and we did not really like that "vibe."  Also, they do not have coffee in the lobby in the evenings.  They have only the tiny half a cup bad coffee in the rooms to offer.  The outdoor pool was a treat although the water was very warm as it is directly in the afternoon sun.  The down side is that folks were in the area smoking even though there are posted no smoking signs.  Despite these drawbacks we will stay here again as the location is good for our needs.  It is also only a couple of miles away from restaurants &amp; cafes without having to get on the busiest roads.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r507905012-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -258,9 +345,6 @@
     <t>Very nice hotel seems to be a new hotel. The room was roomy; however I didn’t really care for the shape and the location of the TV. The staff was friendly and helpful.  The breakfast area was about the norm for a Marriott property.   Property is just off 290, on a one way street, which makes it difficult to return to once you leave the area.</t>
   </si>
   <si>
-    <t>May 2017</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r488697059-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -282,6 +366,60 @@
     <t>We typically visit Houston annually to see family. This is where we stay. The facility is new, modern decor. Great fitness center, free breakfast, small bar. Friendly staff and all you would expect. There is a conference center on site as well.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r480400777-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>480400777</t>
+  </si>
+  <si>
+    <t>04/30/2017</t>
+  </si>
+  <si>
+    <t>Very modern and affordable hotel, but bad location.</t>
+  </si>
+  <si>
+    <t>It is a good hotel for the money, make sure you pay below $90. The hotel normally not very busy, so make sure to negotiate the price. They must fill the rooms, so push them hard or just go somewhere else. Rooms are large and modern, free breakfast is included. Hotel employees are friendly. The only issue is location. Stay away from this hotel if you want to go to downtown. Trust me, you do not want to drive in Houston. It is just as bad as LA, but more dangerous. Rent the room here only if your destination in nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Management response:Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded May 2, 2017</t>
+  </si>
+  <si>
+    <t>It is a good hotel for the money, make sure you pay below $90. The hotel normally not very busy, so make sure to negotiate the price. They must fill the rooms, so push them hard or just go somewhere else. Rooms are large and modern, free breakfast is included. Hotel employees are friendly. The only issue is location. Stay away from this hotel if you want to go to downtown. Trust me, you do not want to drive in Houston. It is just as bad as LA, but more dangerous. Rent the room here only if your destination in nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r479291192-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>479291192</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Hotel visit</t>
+  </si>
+  <si>
+    <t>Good clean rooms and comfortable  beds. The breakfast options were good and fresh.  Very reasonable rates made for a good weekend stay close to relatives. Parking was good and easy to get in. Employees were accommodating and helpful. MoreShow less</t>
+  </si>
+  <si>
+    <t>Management response:Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 28, 2017</t>
+  </si>
+  <si>
+    <t>Good clean rooms and comfortable  beds. The breakfast options were good and fresh.  Very reasonable rates made for a good weekend stay close to relatives. Parking was good and easy to get in. Employees were accommodating and helpful. More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r456022806-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -339,6 +477,45 @@
     <t>I attended a conference here and the accommodations were lovely. The meeting room was spacious and clean. The breakfast bacon was crispy. There was coffee and tea available throughout the day. There were plenty of outlets to accommodate the number of laptops being used by the attendees, but it helps if you have a buddy bring a power strip. The staff was helpful and attentive. There was plenty of parking and best of all free Wi-Fi! The internet service was stable and fast. I would definitely be open to hosting a conference here.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r454063902-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>454063902</t>
+  </si>
+  <si>
+    <t>Business Growth Summit</t>
+  </si>
+  <si>
+    <t>The Hotel had great accommodations and the hospitality during our conference was outstanding!The staff was always very helpful.I would definitively recommend SpringHill Suites Houston Northwest for your next conference!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r393743306-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>393743306</t>
+  </si>
+  <si>
+    <t>07/17/2016</t>
+  </si>
+  <si>
+    <t>Great Place, Once You Find It</t>
+  </si>
+  <si>
+    <t>If you are lucky enough to FIND this hotel (it took us literally hours--and several phone calls to the hotel front desk--criss-crossing Houston in early evening traffic), you will be pleased to find that this new Springhill Suites in northwest Houston is typical of others in the chain, which means the rooms are stylishly decorated, immaculate, with an atypical room arrangement that provides a seating/desk area divided by an opaque panel from the sleeping area. (This area also features a fridge, microwave and coffeemaker.) The bathroom setup is a little problematical because the sliding doors open directly onto the sleeping area and it's hard to turn on lights or make noise without disturbing those in the beds directly opposite the bathroom door.  The arrangement looks great but really is kind of impractical.  That being said, the room is quiet, the staff is great and the price is not bad.You may be told that this hotel is at the intersection of 1960 and 290 but it is actually not; you have to drive further west along the 290 frontage road, keeping a hawk eye out for a sudden turnoff to the right on an unmarked access road.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded July 20, 2016</t>
+  </si>
+  <si>
+    <t>Responded July 20, 2016</t>
+  </si>
+  <si>
+    <t>If you are lucky enough to FIND this hotel (it took us literally hours--and several phone calls to the hotel front desk--criss-crossing Houston in early evening traffic), you will be pleased to find that this new Springhill Suites in northwest Houston is typical of others in the chain, which means the rooms are stylishly decorated, immaculate, with an atypical room arrangement that provides a seating/desk area divided by an opaque panel from the sleeping area. (This area also features a fridge, microwave and coffeemaker.) The bathroom setup is a little problematical because the sliding doors open directly onto the sleeping area and it's hard to turn on lights or make noise without disturbing those in the beds directly opposite the bathroom door.  The arrangement looks great but really is kind of impractical.  That being said, the room is quiet, the staff is great and the price is not bad.You may be told that this hotel is at the intersection of 1960 and 290 but it is actually not; you have to drive further west along the 290 frontage road, keeping a hawk eye out for a sudden turnoff to the right on an unmarked access road.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r386446216-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -357,9 +534,6 @@
     <t>June 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded July 6, 2016</t>
   </si>
   <si>
@@ -423,6 +597,36 @@
     <t>My husband and I stayed here and found the room to be clean and nicely appointed. Staff was very friendly and helpful. Breakfast buffet was very tasty and fresh with starbucks coffee! I especially liked that the window in our room could be opened for some fresh air. The bed was a little hard, but maybe just because the hotel is new. I will note that google maps could not direct us correctly and we had to call the hotel for directions, as there is a lot of construction in the area.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r359054018-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>359054018</t>
+  </si>
+  <si>
+    <t>03/27/2016</t>
+  </si>
+  <si>
+    <t>Very Nice!</t>
+  </si>
+  <si>
+    <t>My wife and I enjoyed a very nice stay. The staff was very friendly and accommodating. Check in was a breeze. The room was clean and quiet. Especially enjoyed the walk-in shower. This hotel is perfect for anyone traveling on business.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r358603007-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>358603007</t>
+  </si>
+  <si>
+    <t>03/25/2016</t>
+  </si>
+  <si>
+    <t>Excellent experience</t>
+  </si>
+  <si>
+    <t>When arriving at hotel Brandon at the front desk was very helpful and check in was a breeze. Very elegant lobby with bar/lounge with very nice and pleasant staff. Rooms where very spacious and modern.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r357398417-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -477,6 +681,63 @@
     <t>We stayed just for a night, we checked in about 9pm Daniel helped us at the front desk he was extremely nice, offered us the free candy and shared with us some interesting facts about the hotel candy. The room was very modern and extremely nice. Comfortable bed. Plenty of room for our luggage, with an awesome closest. I personally loved all the lighting and the bathroom very roomy. Wonderful breakfast too! Both of the woman that helped with the breakfast were extremely nice. While leaving in the morning Della very kindly told us a sweet "safe travels". Some of the best personal attention to guests I have every seen! Will come again!!More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r354557813-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354557813</t>
+  </si>
+  <si>
+    <t>03/11/2016</t>
+  </si>
+  <si>
+    <t>Unsurpassed Attention // Sales Person takes care of guests</t>
+  </si>
+  <si>
+    <t>We travel to different cities for my company and my son's team sports and we've never experienced such attention from the person working with our group as we did with Heather Boland!!   I updated information multiple times with her at times in the night most people are sleeping and she was as lively as it was noon.  She met our group when we arrived and introduced the front desk people to us.  She even took time to print maps. Send us "good luck at competition" emails and checked on us the whole stay.    We have never had a stay anywhere else like this and as long as she's our sales lady, we will book everything at your hotel.   The rooms were beautiful.   She took time to turn lights on and place welcome notes in each of our rooms and when I learned from other teams that she did the same for them I was even more impressed.  The rest of the staff was very helpful and the supervisor, Steve and Heather had a contagious energy with a lobby full of people --  don't know how they make it look fun and easy but they did.    We will be calling Heather for everything we need!!!!  MoreShow less</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded March 12, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 12, 2016</t>
+  </si>
+  <si>
+    <t>We travel to different cities for my company and my son's team sports and we've never experienced such attention from the person working with our group as we did with Heather Boland!!   I updated information multiple times with her at times in the night most people are sleeping and she was as lively as it was noon.  She met our group when we arrived and introduced the front desk people to us.  She even took time to print maps. Send us "good luck at competition" emails and checked on us the whole stay.    We have never had a stay anywhere else like this and as long as she's our sales lady, we will book everything at your hotel.   The rooms were beautiful.   She took time to turn lights on and place welcome notes in each of our rooms and when I learned from other teams that she did the same for them I was even more impressed.  The rest of the staff was very helpful and the supervisor, Steve and Heather had a contagious energy with a lobby full of people --  don't know how they make it look fun and easy but they did.    We will be calling Heather for everything we need!!!!  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r354167484-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
+  </si>
+  <si>
+    <t>354167484</t>
+  </si>
+  <si>
+    <t>03/09/2016</t>
+  </si>
+  <si>
+    <t>Too many issues, lousy customer service</t>
+  </si>
+  <si>
+    <t>FYI, the address listed (20350 Northwest Fwy) will not take you to this hotel. Shortly before we arrived, someone texted us the address to the Goode BBQ place right next door so we could put that in our GPS and find the hotel.  That address is 20102 Northwest Fwy.
+This was the hotel booked for our soccer team.  The person booking the hotel requests double beds for all rooms.  When we arrived, the staff told us there were no doubles available and told us, two different times, that, yes, double beds were reserved for our team, but that "doubles are never guaranteed" which is of course ludicrous.  With our party of 6, that was not going to work out.
+We went to our single king bed room and found it to be very nice because it was new, but small, and of course with 1 bed that wouldn't work for us. We noted there was no bathtub either. About an hour later they were able to move us into a (much larger) double bed room only because our group had an extra room that wasn't needed.  
+The door to the double bed room had a broken lock so anyone could walk in without a key card. We called the front desk when we realized, about 9:30p. No one came to fix it. We pushed furniture up against the door at night and used the privacy bar lock. No one called...FYI, the address listed (20350 Northwest Fwy) will not take you to this hotel. Shortly before we arrived, someone texted us the address to the Goode BBQ place right next door so we could put that in our GPS and find the hotel.  That address is 20102 Northwest Fwy.This was the hotel booked for our soccer team.  The person booking the hotel requests double beds for all rooms.  When we arrived, the staff told us there were no doubles available and told us, two different times, that, yes, double beds were reserved for our team, but that "doubles are never guaranteed" which is of course ludicrous.  With our party of 6, that was not going to work out.We went to our single king bed room and found it to be very nice because it was new, but small, and of course with 1 bed that wouldn't work for us. We noted there was no bathtub either. About an hour later they were able to move us into a (much larger) double bed room only because our group had an extra room that wasn't needed.  The door to the double bed room had a broken lock so anyone could walk in without a key card. We called the front desk when we realized, about 9:30p. No one came to fix it. We pushed furniture up against the door at night and used the privacy bar lock. No one called or came to fix the lock the next morning, either, up until we checked out.The room had a spacious walk-in closet with a light which was great because we could use it as a changing room. The bathroom doors have no lock or latch at all, which doesn't make sense.Worse, the bathroom doors are made mostly of frosted glass, with wood trim on the outer edges. So whenever someone turns the bathroom light on at night, it can easily wake others up as the the entire room lights up. Since helping customers get a good night's sleep is the primary aim of any hotel, that is a poor design.The sofa bed was not a pullout bed, but rather a trundle bed that was twin size (or maybe a bit smaller?)  So for two people to use it, one would sleep on the couch and one on the trundle. (Not sure if the same for all rooms).  They provide one extra set of sheets/blanket/pillow for the sofa bed, but you would need two.Also, the way they designed the curtains, a lot of sunlight was shining through the top, bottom and sides quite early in the day. If you want a dark room to sleep in past sunrise, perhaps a room that doesn't face East would help.The worst part of our experience was the customer service at the front desk.  They didn't seem to care that we had a party of 6 and needed the double bed room with sofa bed to fit everyone.  They just kept brushing us off without even an apology, acknowledging their mistake and trying to make it right.The next morning, with several groups of teen athletes, they ran out of milk by 9am! That was unacceptable. They ran out of several things before breakfast time was up. These boys needed to get their breakfast and head out to their games, so going somewhere else to eat was not an option. Very poor planning! Plus, I would think they could send someone down the street to a grocery store to buy a few gallons of milk, and other items, when they saw they were low.One of the worst customer service experiences we've had at any Marriott!MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded March 10, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 10, 2016</t>
+  </si>
+  <si>
+    <t>FYI, the address listed (20350 Northwest Fwy) will not take you to this hotel. Shortly before we arrived, someone texted us the address to the Goode BBQ place right next door so we could put that in our GPS and find the hotel.  That address is 20102 Northwest Fwy.
+This was the hotel booked for our soccer team.  The person booking the hotel requests double beds for all rooms.  When we arrived, the staff told us there were no doubles available and told us, two different times, that, yes, double beds were reserved for our team, but that "doubles are never guaranteed" which is of course ludicrous.  With our party of 6, that was not going to work out.
+We went to our single king bed room and found it to be very nice because it was new, but small, and of course with 1 bed that wouldn't work for us. We noted there was no bathtub either. About an hour later they were able to move us into a (much larger) double bed room only because our group had an extra room that wasn't needed.  
+The door to the double bed room had a broken lock so anyone could walk in without a key card. We called the front desk when we realized, about 9:30p. No one came to fix it. We pushed furniture up against the door at night and used the privacy bar lock. No one called...FYI, the address listed (20350 Northwest Fwy) will not take you to this hotel. Shortly before we arrived, someone texted us the address to the Goode BBQ place right next door so we could put that in our GPS and find the hotel.  That address is 20102 Northwest Fwy.This was the hotel booked for our soccer team.  The person booking the hotel requests double beds for all rooms.  When we arrived, the staff told us there were no doubles available and told us, two different times, that, yes, double beds were reserved for our team, but that "doubles are never guaranteed" which is of course ludicrous.  With our party of 6, that was not going to work out.We went to our single king bed room and found it to be very nice because it was new, but small, and of course with 1 bed that wouldn't work for us. We noted there was no bathtub either. About an hour later they were able to move us into a (much larger) double bed room only because our group had an extra room that wasn't needed.  The door to the double bed room had a broken lock so anyone could walk in without a key card. We called the front desk when we realized, about 9:30p. No one came to fix it. We pushed furniture up against the door at night and used the privacy bar lock. No one called or came to fix the lock the next morning, either, up until we checked out.The room had a spacious walk-in closet with a light which was great because we could use it as a changing room. The bathroom doors have no lock or latch at all, which doesn't make sense.Worse, the bathroom doors are made mostly of frosted glass, with wood trim on the outer edges. So whenever someone turns the bathroom light on at night, it can easily wake others up as the the entire room lights up. Since helping customers get a good night's sleep is the primary aim of any hotel, that is a poor design.The sofa bed was not a pullout bed, but rather a trundle bed that was twin size (or maybe a bit smaller?)  So for two people to use it, one would sleep on the couch and one on the trundle. (Not sure if the same for all rooms).  They provide one extra set of sheets/blanket/pillow for the sofa bed, but you would need two.Also, the way they designed the curtains, a lot of sunlight was shining through the top, bottom and sides quite early in the day. If you want a dark room to sleep in past sunrise, perhaps a room that doesn't face East would help.The worst part of our experience was the customer service at the front desk.  They didn't seem to care that we had a party of 6 and needed the double bed room with sofa bed to fit everyone.  They just kept brushing us off without even an apology, acknowledging their mistake and trying to make it right.The next morning, with several groups of teen athletes, they ran out of milk by 9am! That was unacceptable. They ran out of several things before breakfast time was up. These boys needed to get their breakfast and head out to their games, so going somewhere else to eat was not an option. Very poor planning! Plus, I would think they could send someone down the street to a grocery store to buy a few gallons of milk, and other items, when they saw they were low.One of the worst customer service experiences we've had at any Marriott!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56003-d8529159-r349539455-SpringHill_Suites_Houston_Hwy_290_NW_Cypress-Houston_Texas.html</t>
   </si>
   <si>
@@ -490,9 +751,6 @@
   </si>
   <si>
     <t>Next time I'm in town I will be staying here. This place is amazing, brand new and is kept up. The management team &amp; staff are doing a fantastic job here. I only found this only because I had to find another hotel for my last night of my stay because my current hotel, Residence Inn, was over booked for Friday. Anyhow their loss, now that I've found SpringHill, I will be returning every time I'm in HoustonMoreShow less</t>
-  </si>
-  <si>
-    <t>February 2016</t>
   </si>
   <si>
     <t>BorenCS, General Manager at SpringHill Suites Houston Hwy. 290/NW Cypress, responded to this reviewResponded February 22, 2016</t>
@@ -1044,23 +1302,19 @@
       <c r="O2" t="s">
         <v>53</v>
       </c>
-      <c r="P2" t="n">
-        <v>5</v>
-      </c>
+      <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
@@ -1076,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G3" t="s">
         <v>46</v>
@@ -1085,35 +1339,37 @@
         <v>47</v>
       </c>
       <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
       </c>
-      <c r="L3" t="s">
-        <v>59</v>
-      </c>
       <c r="M3" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="O3" t="s">
-        <v>61</v>
-      </c>
-      <c r="P3" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q3" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
       <c r="R3" t="s"/>
-      <c r="S3" t="s"/>
+      <c r="S3" t="n">
+        <v>4</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1121,7 +1377,7 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4">
@@ -1137,7 +1393,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -1146,32 +1402,36 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>5</v>
+      </c>
+      <c r="N4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="O4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
-        <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>4</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>53</v>
-      </c>
-      <c r="P4" t="s"/>
+      <c r="P4" t="n">
+        <v>5</v>
+      </c>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
       <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="s"/>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
@@ -1194,7 +1454,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -1203,39 +1463,43 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
         <v>70</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="M5" t="n">
-        <v>4</v>
-      </c>
-      <c r="N5" t="s">
-        <v>74</v>
-      </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="6">
@@ -1278,20 +1542,14 @@
         <v>80</v>
       </c>
       <c r="O6" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="n">
-        <v>4</v>
-      </c>
-      <c r="R6" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
       <c r="S6" t="s"/>
       <c r="T6" t="s"/>
-      <c r="U6" t="n">
-        <v>4</v>
-      </c>
+      <c r="U6" t="s"/>
       <c r="V6" t="n">
         <v>0</v>
       </c>
@@ -1326,22 +1584,22 @@
         <v>82</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="K7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="L7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="M7" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="O7" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -1352,14 +1610,10 @@
       <c r="V7" t="n">
         <v>0</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>85</v>
-      </c>
-      <c r="X7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="8">
@@ -1375,7 +1629,7 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
         <v>46</v>
@@ -1384,41 +1638,47 @@
         <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
         <v>89</v>
       </c>
-      <c r="J8" t="s">
+      <c r="K8" t="s">
         <v>90</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>91</v>
       </c>
-      <c r="L8" t="s">
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
         <v>92</v>
       </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>93</v>
-      </c>
       <c r="O8" t="s">
-        <v>94</v>
-      </c>
-      <c r="P8" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="n">
+        <v>3</v>
+      </c>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
       <c r="U8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s"/>
-      <c r="X8" t="s"/>
+      <c r="W8" t="s">
+        <v>93</v>
+      </c>
+      <c r="X8" t="s">
+        <v>94</v>
+      </c>
       <c r="Y8" t="s">
         <v>95</v>
       </c>
@@ -1457,33 +1717,27 @@
         <v>100</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="O9" t="s">
         <v>53</v>
       </c>
       <c r="P9" t="s"/>
-      <c r="Q9" t="n">
-        <v>5</v>
-      </c>
-      <c r="R9" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
       <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>5</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -1520,25 +1774,25 @@
         <v>106</v>
       </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="O10" t="s">
         <v>53</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1574,44 +1828,40 @@
         <v>108</v>
       </c>
       <c r="J11" t="s">
+        <v>104</v>
+      </c>
+      <c r="K11" t="s">
         <v>109</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>110</v>
       </c>
-      <c r="L11" t="s">
-        <v>111</v>
-      </c>
       <c r="M11" t="n">
         <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>112</v>
+        <v>86</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
-      <c r="U11" t="n">
-        <v>5</v>
-      </c>
+      <c r="U11" t="s"/>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="X11" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="Y11" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
@@ -1627,7 +1877,7 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G12" t="s">
         <v>46</v>
@@ -1636,25 +1886,25 @@
         <v>47</v>
       </c>
       <c r="I12" t="s">
+        <v>115</v>
+      </c>
+      <c r="J12" t="s">
+        <v>116</v>
+      </c>
+      <c r="K12" t="s">
+        <v>117</v>
+      </c>
+      <c r="L12" t="s">
         <v>118</v>
       </c>
-      <c r="J12" t="s">
+      <c r="M12" t="n">
+        <v>4</v>
+      </c>
+      <c r="N12" t="s">
         <v>119</v>
       </c>
-      <c r="K12" t="s">
+      <c r="O12" t="s">
         <v>120</v>
-      </c>
-      <c r="L12" t="s">
-        <v>121</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>122</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="n">
@@ -1670,13 +1920,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
+        <v>121</v>
+      </c>
+      <c r="X12" t="s">
+        <v>122</v>
+      </c>
+      <c r="Y12" t="s">
         <v>123</v>
-      </c>
-      <c r="X12" t="s">
-        <v>124</v>
-      </c>
-      <c r="Y12" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="13">
@@ -1692,7 +1942,7 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G13" t="s">
         <v>46</v>
@@ -1701,47 +1951,43 @@
         <v>47</v>
       </c>
       <c r="I13" t="s">
+        <v>125</v>
+      </c>
+      <c r="J13" t="s">
+        <v>126</v>
+      </c>
+      <c r="K13" t="s">
         <v>127</v>
       </c>
-      <c r="J13" t="s">
+      <c r="L13" t="s">
         <v>128</v>
-      </c>
-      <c r="K13" t="s">
-        <v>129</v>
-      </c>
-      <c r="L13" t="s">
-        <v>130</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>131</v>
+        <v>119</v>
       </c>
       <c r="O13" t="s">
-        <v>113</v>
+        <v>53</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="s"/>
-      <c r="R13" t="n">
-        <v>3</v>
-      </c>
+      <c r="R13" t="s"/>
       <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>5</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="X13" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="Y13" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14">
@@ -1757,7 +2003,7 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="G14" t="s">
         <v>46</v>
@@ -1766,37 +2012,35 @@
         <v>47</v>
       </c>
       <c r="I14" t="s">
+        <v>133</v>
+      </c>
+      <c r="J14" t="s">
+        <v>134</v>
+      </c>
+      <c r="K14" t="s">
+        <v>135</v>
+      </c>
+      <c r="L14" t="s">
         <v>136</v>
       </c>
-      <c r="J14" t="s">
+      <c r="M14" t="n">
+        <v>4</v>
+      </c>
+      <c r="N14" t="s">
         <v>137</v>
       </c>
-      <c r="K14" t="s">
+      <c r="O14" t="s">
         <v>138</v>
       </c>
-      <c r="L14" t="s">
-        <v>139</v>
-      </c>
-      <c r="M14" t="n">
-        <v>5</v>
-      </c>
-      <c r="N14" t="s">
-        <v>131</v>
-      </c>
-      <c r="O14" t="s">
-        <v>113</v>
-      </c>
-      <c r="P14" t="s"/>
-      <c r="Q14" t="n">
-        <v>5</v>
-      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="s"/>
       <c r="R14" t="s"/>
-      <c r="S14" t="n">
-        <v>5</v>
-      </c>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -1804,7 +2048,7 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="15">
@@ -1820,7 +2064,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -1829,34 +2073,34 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
+        <v>141</v>
+      </c>
+      <c r="J15" t="s">
         <v>142</v>
       </c>
-      <c r="J15" t="s">
+      <c r="K15" t="s">
         <v>143</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>144</v>
       </c>
-      <c r="L15" t="s">
-        <v>145</v>
-      </c>
       <c r="M15" t="n">
         <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O15" t="s">
-        <v>113</v>
+        <v>66</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="n">
         <v>5</v>
       </c>
-      <c r="R15" t="s"/>
-      <c r="S15" t="n">
-        <v>5</v>
-      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="s"/>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>5</v>
@@ -1867,7 +2111,7 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="16">
@@ -1883,7 +2127,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -1892,32 +2136,34 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
+        <v>147</v>
+      </c>
+      <c r="J16" t="s">
         <v>148</v>
       </c>
-      <c r="J16" t="s">
+      <c r="K16" t="s">
         <v>149</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>150</v>
       </c>
-      <c r="L16" t="s">
-        <v>151</v>
-      </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="O16" t="s">
-        <v>94</v>
+        <v>66</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
       <c r="U16" t="n">
         <v>5</v>
@@ -1928,7 +2174,7 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="17">
@@ -1944,7 +2190,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -1953,47 +2199,799 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
+        <v>152</v>
+      </c>
+      <c r="J17" t="s">
+        <v>148</v>
+      </c>
+      <c r="K17" t="s">
+        <v>153</v>
+      </c>
+      <c r="L17" t="s">
         <v>154</v>
       </c>
-      <c r="J17" t="s">
-        <v>155</v>
-      </c>
-      <c r="K17" t="s">
-        <v>156</v>
-      </c>
-      <c r="L17" t="s">
-        <v>157</v>
-      </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>158</v>
+        <v>137</v>
       </c>
       <c r="O17" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>5</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>155</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>156</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>158</v>
+      </c>
+      <c r="L18" t="s">
         <v>159</v>
       </c>
-      <c r="X17" t="s">
+      <c r="M18" t="n">
+        <v>4</v>
+      </c>
+      <c r="N18" t="s">
         <v>160</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="n">
+        <v>4</v>
+      </c>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>5</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s">
         <v>161</v>
+      </c>
+      <c r="X18" t="s">
+        <v>162</v>
+      </c>
+      <c r="Y18" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>165</v>
+      </c>
+      <c r="J19" t="s">
+        <v>166</v>
+      </c>
+      <c r="K19" t="s">
+        <v>167</v>
+      </c>
+      <c r="L19" t="s">
+        <v>168</v>
+      </c>
+      <c r="M19" t="n">
+        <v>5</v>
+      </c>
+      <c r="N19" t="s">
+        <v>169</v>
+      </c>
+      <c r="O19" t="s">
+        <v>120</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>5</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s">
+        <v>170</v>
+      </c>
+      <c r="X19" t="s">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>173</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>174</v>
+      </c>
+      <c r="J20" t="s">
+        <v>175</v>
+      </c>
+      <c r="K20" t="s">
+        <v>176</v>
+      </c>
+      <c r="L20" t="s">
+        <v>177</v>
+      </c>
+      <c r="M20" t="n">
+        <v>5</v>
+      </c>
+      <c r="N20" t="s">
+        <v>178</v>
+      </c>
+      <c r="O20" t="s">
+        <v>66</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="n">
+        <v>5</v>
+      </c>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>5</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>179</v>
+      </c>
+      <c r="X20" t="s">
+        <v>180</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>182</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>183</v>
+      </c>
+      <c r="J21" t="s">
+        <v>184</v>
+      </c>
+      <c r="K21" t="s">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s">
+        <v>186</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>187</v>
+      </c>
+      <c r="O21" t="s">
+        <v>120</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="n">
+        <v>3</v>
+      </c>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>5</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s">
+        <v>188</v>
+      </c>
+      <c r="X21" t="s">
+        <v>189</v>
+      </c>
+      <c r="Y21" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>191</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>192</v>
+      </c>
+      <c r="J22" t="s">
+        <v>193</v>
+      </c>
+      <c r="K22" t="s">
+        <v>194</v>
+      </c>
+      <c r="L22" t="s">
+        <v>195</v>
+      </c>
+      <c r="M22" t="n">
+        <v>5</v>
+      </c>
+      <c r="N22" t="s">
+        <v>187</v>
+      </c>
+      <c r="O22" t="s">
+        <v>120</v>
+      </c>
+      <c r="P22" t="s"/>
+      <c r="Q22" t="n">
+        <v>5</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>196</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>197</v>
+      </c>
+      <c r="J23" t="s">
+        <v>198</v>
+      </c>
+      <c r="K23" t="s">
+        <v>199</v>
+      </c>
+      <c r="L23" t="s">
+        <v>200</v>
+      </c>
+      <c r="M23" t="n">
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>187</v>
+      </c>
+      <c r="O23" t="s">
+        <v>138</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>201</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>202</v>
+      </c>
+      <c r="J24" t="s">
+        <v>203</v>
+      </c>
+      <c r="K24" t="s">
+        <v>204</v>
+      </c>
+      <c r="L24" t="s">
+        <v>205</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>187</v>
+      </c>
+      <c r="O24" t="s">
+        <v>120</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="n">
+        <v>5</v>
+      </c>
+      <c r="R24" t="s"/>
+      <c r="S24" t="n">
+        <v>5</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>207</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>208</v>
+      </c>
+      <c r="J25" t="s">
+        <v>209</v>
+      </c>
+      <c r="K25" t="s">
+        <v>210</v>
+      </c>
+      <c r="L25" t="s">
+        <v>211</v>
+      </c>
+      <c r="M25" t="n">
+        <v>5</v>
+      </c>
+      <c r="N25" t="s">
+        <v>187</v>
+      </c>
+      <c r="O25" t="s">
+        <v>120</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="s"/>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>213</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>214</v>
+      </c>
+      <c r="J26" t="s">
+        <v>215</v>
+      </c>
+      <c r="K26" t="s">
+        <v>216</v>
+      </c>
+      <c r="L26" t="s">
+        <v>217</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>187</v>
+      </c>
+      <c r="O26" t="s">
+        <v>138</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>219</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>220</v>
+      </c>
+      <c r="J27" t="s">
+        <v>221</v>
+      </c>
+      <c r="K27" t="s">
+        <v>222</v>
+      </c>
+      <c r="L27" t="s">
+        <v>223</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>187</v>
+      </c>
+      <c r="O27" t="s">
+        <v>66</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>224</v>
+      </c>
+      <c r="X27" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>228</v>
+      </c>
+      <c r="J28" t="s">
+        <v>229</v>
+      </c>
+      <c r="K28" t="s">
+        <v>230</v>
+      </c>
+      <c r="L28" t="s">
+        <v>231</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>232</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>3</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>1</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>233</v>
+      </c>
+      <c r="X28" t="s">
+        <v>234</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>63698</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>236</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>237</v>
+      </c>
+      <c r="J29" t="s">
+        <v>238</v>
+      </c>
+      <c r="K29" t="s">
+        <v>239</v>
+      </c>
+      <c r="L29" t="s">
+        <v>240</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>232</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>241</v>
+      </c>
+      <c r="X29" t="s">
+        <v>242</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
